--- a/templates/v1.xlsx
+++ b/templates/v1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Barcode</t>
   </si>
@@ -33,15 +33,9 @@
     <t>LaufId</t>
   </si>
   <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
     <t>Volumen | ATL</t>
   </si>
   <si>
-    <t>Eluat vorhanden</t>
-  </si>
-  <si>
     <t>BAL / SPU / SE + SPUTA / nzahwmk</t>
   </si>
   <si>
@@ -54,12 +48,6 @@
     <t>Geändert: Kandeepan</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tagesnummer</t>
-  </si>
-  <si>
     <t>Analyt-Material-Assay</t>
   </si>
   <si>
@@ -76,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ersteller: Kandeepan </t>
+  </si>
+  <si>
+    <t>Tagesnummer, Name</t>
+  </si>
+  <si>
+    <t>ELU/Kommentar</t>
   </si>
 </sst>
 </file>
@@ -141,11 +135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -165,13 +156,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -195,13 +184,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>118783</xdr:rowOff>
     </xdr:to>
@@ -212,8 +201,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="57151" y="28575"/>
-          <a:ext cx="8772524" cy="1423708"/>
+          <a:off x="95251" y="28575"/>
+          <a:ext cx="8839199" cy="1423708"/>
           <a:chOff x="6196450" y="0"/>
           <a:chExt cx="6069417" cy="1149269"/>
         </a:xfrm>
@@ -812,377 +801,340 @@
   <sheetPr codeName="Tabelle1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A9:J39"/>
+  <dimension ref="A9:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>5</v>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12">
-        <f>A12</f>
+      <c r="G12" s="1"/>
+      <c r="H12">
+        <f t="shared" ref="H12:H23" si="0">A12</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13">
-        <f>A13</f>
+      <c r="G13" s="1"/>
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14">
-        <f>A14</f>
+      <c r="G14" s="1"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15">
-        <f>A15</f>
+      <c r="G15" s="1"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16">
-        <f>A16</f>
+      <c r="G16" s="1"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17">
-        <f>A17</f>
+      <c r="G17" s="1"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18">
-        <f>A18</f>
+      <c r="G18" s="1"/>
+      <c r="H18">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19">
-        <f>A19</f>
+      <c r="G19" s="1"/>
+      <c r="H19">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20">
-        <f>A20</f>
+      <c r="G20" s="1"/>
+      <c r="H20">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21">
-        <f>A21</f>
+      <c r="G21" s="1"/>
+      <c r="H21">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22">
-        <f>A22</f>
+      <c r="G22" s="1"/>
+      <c r="H22">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="56.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23">
-        <f>A23</f>
+      <c r="G23" s="1"/>
+      <c r="H23">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="I36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="H29:I29"/>
+  <mergeCells count="1">
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/templates/v1.xlsx
+++ b/templates/v1.xlsx
@@ -156,11 +156,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -803,8 +803,8 @@
   </sheetPr>
   <dimension ref="A9:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,6 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12">
-        <f t="shared" ref="H12:H23" si="0">A12</f>
         <v>1</v>
       </c>
     </row>
@@ -866,7 +865,6 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -876,7 +874,6 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -886,7 +883,6 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -896,7 +892,6 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -906,7 +901,6 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -916,7 +910,6 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -926,7 +919,6 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -936,7 +928,6 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -946,7 +937,6 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -956,7 +946,6 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -966,7 +955,6 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -996,10 +984,10 @@
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -1009,8 +997,8 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1019,10 +1007,10 @@
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
